--- a/Hobol/0675_1/CD/0675_1 Szolgalmi jog koord.xlsx
+++ b/Hobol/0675_1/CD/0675_1 Szolgalmi jog koord.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="52">
   <si>
     <t>Pontkód</t>
   </si>
@@ -106,6 +106,78 @@
   </si>
   <si>
     <t>32/16/2019</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>551290.260</t>
+  </si>
+  <si>
+    <t>74158.740</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>551541.710</t>
+  </si>
+  <si>
+    <t>74364.510</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>551566.230</t>
+  </si>
+  <si>
+    <t>74359.110</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>551975.070</t>
+  </si>
+  <si>
+    <t>74049.400</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>551590.220</t>
+  </si>
+  <si>
+    <t>73747.680</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>551576.400</t>
+  </si>
+  <si>
+    <t>73752.700</t>
+  </si>
+  <si>
+    <t>20000</t>
+  </si>
+  <si>
+    <t>551290.270</t>
+  </si>
+  <si>
+    <t>20005</t>
+  </si>
+  <si>
+    <t>551576.680</t>
+  </si>
+  <si>
+    <t>73752.520</t>
+  </si>
+  <si>
+    <t>szántó széle</t>
   </si>
 </sst>
 </file>
@@ -564,7 +636,7 @@
   <dimension ref="A1:AI95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="N18" sqref="N18:P29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1"/>
@@ -1323,61 +1395,149 @@
       <c r="X24" s="24"/>
     </row>
     <row r="25" spans="2:35" ht="14.25" customHeight="1">
+      <c r="B25" s="24" t="s">
+        <v>28</v>
+      </c>
       <c r="C25" s="21"/>
+      <c r="D25" s="24" t="s">
+        <v>29</v>
+      </c>
       <c r="E25" s="21"/>
+      <c r="F25" s="24" t="s">
+        <v>30</v>
+      </c>
       <c r="G25" s="21"/>
-      <c r="H25" s="7"/>
+      <c r="H25" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="U25" s="24"/>
       <c r="V25" s="24"/>
       <c r="W25" s="24"/>
       <c r="X25" s="24"/>
     </row>
     <row r="26" spans="2:35" ht="14.25" customHeight="1">
+      <c r="B26" s="24" t="s">
+        <v>31</v>
+      </c>
       <c r="C26" s="21"/>
+      <c r="D26" s="24" t="s">
+        <v>32</v>
+      </c>
       <c r="E26" s="21"/>
+      <c r="F26" s="24" t="s">
+        <v>33</v>
+      </c>
       <c r="G26" s="21"/>
-      <c r="H26" s="7"/>
+      <c r="H26" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="U26" s="24"/>
       <c r="V26" s="24"/>
       <c r="W26" s="24"/>
       <c r="X26" s="24"/>
     </row>
     <row r="27" spans="2:35" ht="14.25" customHeight="1">
+      <c r="B27" s="24" t="s">
+        <v>34</v>
+      </c>
       <c r="C27" s="21"/>
+      <c r="D27" s="24" t="s">
+        <v>35</v>
+      </c>
       <c r="E27" s="21"/>
+      <c r="F27" s="24" t="s">
+        <v>36</v>
+      </c>
       <c r="G27" s="21"/>
-      <c r="H27" s="7"/>
+      <c r="H27" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="U27" s="24"/>
       <c r="V27" s="24"/>
       <c r="W27" s="24"/>
       <c r="X27" s="24"/>
     </row>
     <row r="28" spans="2:35" ht="14.25" customHeight="1">
+      <c r="B28" s="24" t="s">
+        <v>37</v>
+      </c>
       <c r="C28" s="21"/>
+      <c r="D28" s="24" t="s">
+        <v>38</v>
+      </c>
       <c r="E28" s="21"/>
+      <c r="F28" s="24" t="s">
+        <v>39</v>
+      </c>
       <c r="G28" s="21"/>
-      <c r="H28" s="7"/>
+      <c r="H28" s="7" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="29" spans="2:35" ht="14.25" customHeight="1">
+      <c r="B29" s="24" t="s">
+        <v>40</v>
+      </c>
       <c r="C29" s="22"/>
+      <c r="D29" s="24" t="s">
+        <v>41</v>
+      </c>
       <c r="E29" s="22"/>
+      <c r="F29" s="24" t="s">
+        <v>42</v>
+      </c>
       <c r="G29" s="22"/>
-      <c r="H29" s="7"/>
+      <c r="H29" s="7" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="30" spans="2:35" ht="14.25" customHeight="1">
-      <c r="H30" s="7"/>
+      <c r="B30" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="31" spans="2:35" ht="14.25" customHeight="1">
+      <c r="B31" s="24" t="s">
+        <v>46</v>
+      </c>
       <c r="C31" s="23"/>
+      <c r="D31" s="24" t="s">
+        <v>47</v>
+      </c>
       <c r="E31" s="23"/>
+      <c r="F31" s="24" t="s">
+        <v>30</v>
+      </c>
       <c r="G31" s="23"/>
-      <c r="H31" s="7"/>
+      <c r="H31" s="7" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="32" spans="2:35" ht="14.25" customHeight="1">
+      <c r="B32" s="24" t="s">
+        <v>48</v>
+      </c>
       <c r="C32" s="19"/>
+      <c r="D32" s="24" t="s">
+        <v>49</v>
+      </c>
       <c r="E32" s="19"/>
+      <c r="F32" s="24" t="s">
+        <v>50</v>
+      </c>
       <c r="G32" s="19"/>
-      <c r="H32" s="7"/>
+      <c r="H32" s="7" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="33" spans="3:8" ht="14.25" customHeight="1">
       <c r="G33" s="13"/>
